--- a/output/tips.xlsx
+++ b/output/tips.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$245</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="17">
-  <si>
-    <t>total_bill</t>
-  </si>
   <si>
     <t>tip</t>
   </si>
@@ -66,16 +66,20 @@
   <si>
     <t>Lunch</t>
   </si>
+  <si>
+    <t>total_bill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -83,8 +87,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -130,15 +141,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -212,6 +228,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -246,6 +263,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -421,63 +439,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.99</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="C2">
         <v>1.01</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -488,22 +508,22 @@
         <v>1.66</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -514,22 +534,22 @@
         <v>3.5</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -540,22 +560,22 @@
         <v>3.31</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -566,22 +586,22 @@
         <v>3.61</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -592,22 +612,22 @@
         <v>4.71</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -618,22 +638,22 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -644,22 +664,22 @@
         <v>3.12</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -670,22 +690,22 @@
         <v>1.96</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -696,22 +716,22 @@
         <v>3.23</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -722,22 +742,22 @@
         <v>1.71</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -748,22 +768,22 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -774,22 +794,22 @@
         <v>1.57</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -800,22 +820,22 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -826,22 +846,22 @@
         <v>3.02</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -852,22 +872,22 @@
         <v>3.92</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -878,22 +898,22 @@
         <v>1.67</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -904,22 +924,22 @@
         <v>3.71</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -930,22 +950,22 @@
         <v>3.5</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -956,48 +976,48 @@
         <v>3.35</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.92</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="C22">
         <v>4.08</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1008,22 +1028,22 @@
         <v>2.75</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1034,22 +1054,22 @@
         <v>2.23</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1060,22 +1080,22 @@
         <v>7.58</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1086,48 +1106,48 @@
         <v>3.18</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>17.81</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="C27">
         <v>2.34</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1138,22 +1158,22 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1164,22 +1184,22 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1190,100 +1210,100 @@
         <v>4.3</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>19.65</v>
+        <v>19.649999999999999</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>9.550000000000001</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="C32">
         <v>1.45</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>18.35</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="C33">
         <v>2.5</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H33">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1294,22 +1314,22 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1317,25 +1337,25 @@
         <v>20.69</v>
       </c>
       <c r="C35">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H35">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1346,22 +1366,22 @@
         <v>3.27</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1372,48 +1392,48 @@
         <v>3.6</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H37">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>16.31</v>
+        <v>16.309999999999999</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1424,48 +1444,48 @@
         <v>3.07</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H39">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>18.69</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="C40">
         <v>2.31</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1476,22 +1496,22 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H41">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1499,25 +1519,25 @@
         <v>16.04</v>
       </c>
       <c r="C42">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H42">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1528,22 +1548,22 @@
         <v>2.54</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1554,22 +1574,22 @@
         <v>3.06</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1580,22 +1600,22 @@
         <v>1.32</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1606,22 +1626,22 @@
         <v>5.6</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H46">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1632,22 +1652,22 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H47">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1658,22 +1678,22 @@
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H48">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1684,22 +1704,22 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H49">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1707,25 +1727,25 @@
         <v>28.55</v>
       </c>
       <c r="C50">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1736,22 +1756,22 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H51">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1762,22 +1782,22 @@
         <v>2.5</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H52">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1788,22 +1808,22 @@
         <v>2.6</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1814,22 +1834,22 @@
         <v>5.2</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H54">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1840,22 +1860,22 @@
         <v>1.56</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1866,48 +1886,48 @@
         <v>4.34</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H56">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>19.49</v>
+        <v>19.489999999999998</v>
       </c>
       <c r="C57">
         <v>3.51</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1918,22 +1938,22 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H58">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1944,22 +1964,22 @@
         <v>1.5</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1970,22 +1990,22 @@
         <v>1.76</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1996,22 +2016,22 @@
         <v>6.73</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H61">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2022,22 +2042,22 @@
         <v>3.21</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2048,22 +2068,22 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2074,22 +2094,22 @@
         <v>1.98</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2100,22 +2120,22 @@
         <v>3.76</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H65">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2126,48 +2146,48 @@
         <v>2.64</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H66">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>20.08</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="C67">
         <v>3.15</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H67">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2175,25 +2195,25 @@
         <v>16.45</v>
       </c>
       <c r="C68">
-        <v>2.47</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2204,22 +2224,22 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2227,25 +2247,25 @@
         <v>20.23</v>
       </c>
       <c r="C70">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2256,22 +2276,22 @@
         <v>2.09</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2282,22 +2302,22 @@
         <v>1.97</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H72">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2308,22 +2328,22 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H73">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2334,22 +2354,22 @@
         <v>3.14</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2360,22 +2380,22 @@
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2383,25 +2403,25 @@
         <v>14.73</v>
       </c>
       <c r="C76">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H76">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2412,48 +2432,48 @@
         <v>1.25</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H77">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>17.92</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="C78">
         <v>3.08</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2464,22 +2484,22 @@
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H79">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2490,22 +2510,22 @@
         <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H80">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2516,48 +2536,48 @@
         <v>2.71</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H81">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>19.44</v>
+        <v>19.440000000000001</v>
       </c>
       <c r="C82">
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H82">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2568,22 +2588,22 @@
         <v>3.4</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2594,22 +2614,22 @@
         <v>1.83</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2620,22 +2640,22 @@
         <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2643,25 +2663,25 @@
         <v>15.98</v>
       </c>
       <c r="C86">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H86">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2672,22 +2692,22 @@
         <v>5.17</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H87">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2698,22 +2718,22 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H88">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2724,22 +2744,22 @@
         <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H89">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2750,22 +2770,22 @@
         <v>5.85</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H90">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2776,22 +2796,22 @@
         <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H91">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2802,22 +2822,22 @@
         <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H92">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2828,22 +2848,22 @@
         <v>3.5</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H93">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2854,22 +2874,22 @@
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2880,22 +2900,22 @@
         <v>4.3</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2906,22 +2926,22 @@
         <v>3.25</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2929,25 +2949,25 @@
         <v>40.17</v>
       </c>
       <c r="C97">
-        <v>4.73</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H97">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2958,22 +2978,22 @@
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H98">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2984,22 +3004,22 @@
         <v>1.5</v>
       </c>
       <c r="D99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H99">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3010,22 +3030,22 @@
         <v>3</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H100">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3036,22 +3056,22 @@
         <v>1.5</v>
       </c>
       <c r="D101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H101">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3062,22 +3082,22 @@
         <v>2.5</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H102">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3088,22 +3108,22 @@
         <v>3</v>
       </c>
       <c r="D103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H103">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3114,22 +3134,22 @@
         <v>2.5</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H104">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3140,22 +3160,22 @@
         <v>3.48</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H105">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3166,22 +3186,22 @@
         <v>4.08</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H106">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3192,22 +3212,22 @@
         <v>1.64</v>
       </c>
       <c r="D107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H107">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3215,25 +3235,25 @@
         <v>20.49</v>
       </c>
       <c r="C108">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="D108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H108">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3244,48 +3264,48 @@
         <v>4.29</v>
       </c>
       <c r="D109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H109">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>18.24</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="C110">
         <v>3.76</v>
       </c>
       <c r="D110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H110">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3296,22 +3316,22 @@
         <v>4</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H111">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3322,22 +3342,22 @@
         <v>3</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H112">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3348,22 +3368,22 @@
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3374,22 +3394,22 @@
         <v>4</v>
       </c>
       <c r="D114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H114">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3397,25 +3417,25 @@
         <v>23.95</v>
       </c>
       <c r="C115">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H115">
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3426,48 +3446,48 @@
         <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H116">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>17.31</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="C117">
         <v>3.5</v>
       </c>
       <c r="D117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H117">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3478,22 +3498,22 @@
         <v>5.07</v>
       </c>
       <c r="D118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H118">
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3504,22 +3524,22 @@
         <v>1.5</v>
       </c>
       <c r="D119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3530,22 +3550,22 @@
         <v>1.8</v>
       </c>
       <c r="D120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3556,22 +3576,22 @@
         <v>2.92</v>
       </c>
       <c r="D121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H121">
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3582,22 +3602,22 @@
         <v>2.31</v>
       </c>
       <c r="D122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H122">
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3608,22 +3628,22 @@
         <v>1.68</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H123">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3634,22 +3654,22 @@
         <v>2.5</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H124">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3660,22 +3680,22 @@
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3686,22 +3706,22 @@
         <v>2.52</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H126">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3712,22 +3732,22 @@
         <v>4.2</v>
       </c>
       <c r="D127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H127">
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3738,22 +3758,22 @@
         <v>1.48</v>
       </c>
       <c r="D128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H128">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3764,22 +3784,22 @@
         <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H129">
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3790,22 +3810,22 @@
         <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3813,51 +3833,51 @@
         <v>22.82</v>
       </c>
       <c r="C131">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="D131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H131">
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>19.08</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="C132">
         <v>1.5</v>
       </c>
       <c r="D132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H132">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3868,22 +3888,22 @@
         <v>2.83</v>
       </c>
       <c r="D133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E133" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H133">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3894,22 +3914,22 @@
         <v>1.5</v>
       </c>
       <c r="D134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H134">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3920,48 +3940,48 @@
         <v>2</v>
       </c>
       <c r="D135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H135">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>18.26</v>
+        <v>18.260000000000002</v>
       </c>
       <c r="C136">
         <v>3.25</v>
       </c>
       <c r="D136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E136" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H136">
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3972,22 +3992,22 @@
         <v>1.25</v>
       </c>
       <c r="D137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E137" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H137">
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3998,22 +4018,22 @@
         <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H138">
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4024,22 +4044,22 @@
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E139" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H139">
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4050,22 +4070,22 @@
         <v>2</v>
       </c>
       <c r="D140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4076,22 +4096,22 @@
         <v>2.75</v>
       </c>
       <c r="D141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4102,48 +4122,48 @@
         <v>3.5</v>
       </c>
       <c r="D142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E142" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="C143">
         <v>6.7</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E143" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H143">
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4154,22 +4174,22 @@
         <v>5</v>
       </c>
       <c r="D144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H144">
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4180,22 +4200,22 @@
         <v>5</v>
       </c>
       <c r="D145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E145" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H145">
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4203,25 +4223,25 @@
         <v>16.43</v>
       </c>
       <c r="C146">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E146" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H146">
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4232,22 +4252,22 @@
         <v>1.5</v>
       </c>
       <c r="D147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E147" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H147">
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4258,22 +4278,22 @@
         <v>1.36</v>
       </c>
       <c r="D148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H148">
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4284,48 +4304,48 @@
         <v>1.63</v>
       </c>
       <c r="D149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H149">
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>9.779999999999999</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="C150">
         <v>1.73</v>
       </c>
       <c r="D150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E150" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H150">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4336,22 +4356,22 @@
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E151" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H151">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4362,22 +4382,22 @@
         <v>2.5</v>
       </c>
       <c r="D152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E152" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H152">
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4388,48 +4408,48 @@
         <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E153" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H153">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>17.26</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="C154">
         <v>2.74</v>
       </c>
       <c r="D154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E154" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H154">
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4440,22 +4460,22 @@
         <v>2</v>
       </c>
       <c r="D155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E155" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H155">
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4466,22 +4486,22 @@
         <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E156" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H156">
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4492,22 +4512,22 @@
         <v>5.14</v>
       </c>
       <c r="D157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E157" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H157">
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4518,22 +4538,22 @@
         <v>5</v>
       </c>
       <c r="D158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E158" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H158">
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4544,22 +4564,22 @@
         <v>3.75</v>
       </c>
       <c r="D159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H159">
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4570,48 +4590,48 @@
         <v>2.61</v>
       </c>
       <c r="D160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E160" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H160">
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>16.49</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="C161">
         <v>2</v>
       </c>
       <c r="D161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E161" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H161">
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4622,22 +4642,22 @@
         <v>3.5</v>
       </c>
       <c r="D162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E162" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G162" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H162">
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4648,22 +4668,22 @@
         <v>2.5</v>
       </c>
       <c r="D163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G163" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H163">
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4674,22 +4694,22 @@
         <v>2</v>
       </c>
       <c r="D164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E164" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H164">
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4700,48 +4720,48 @@
         <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E165" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H165">
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>17.51</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="C166">
         <v>3</v>
       </c>
       <c r="D166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G166" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H166">
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4752,22 +4772,22 @@
         <v>3.48</v>
       </c>
       <c r="D167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E167" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H167">
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4775,25 +4795,25 @@
         <v>20.76</v>
       </c>
       <c r="C168">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="D168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E168" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G168" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H168">
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4804,22 +4824,22 @@
         <v>4.5</v>
       </c>
       <c r="D169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E169" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G169" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H169">
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4830,22 +4850,22 @@
         <v>1.61</v>
       </c>
       <c r="D170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G170" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H170">
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4856,22 +4876,22 @@
         <v>2</v>
       </c>
       <c r="D171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G171" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4882,22 +4902,22 @@
         <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G172" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H172">
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4908,22 +4928,22 @@
         <v>3.16</v>
       </c>
       <c r="D173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G173" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H173">
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4934,22 +4954,22 @@
         <v>5.15</v>
       </c>
       <c r="D174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G174" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H174">
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4960,22 +4980,22 @@
         <v>3.18</v>
       </c>
       <c r="D175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G175" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H175">
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4986,22 +5006,22 @@
         <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F176" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G176" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H176">
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -5012,22 +5032,22 @@
         <v>3.11</v>
       </c>
       <c r="D177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F177" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G177" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H177">
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5038,22 +5058,22 @@
         <v>2</v>
       </c>
       <c r="D178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F178" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G178" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H178">
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5064,22 +5084,22 @@
         <v>2</v>
       </c>
       <c r="D179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G179" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H179">
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5090,48 +5110,48 @@
         <v>4</v>
       </c>
       <c r="D180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G180" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H180">
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>34.63</v>
+        <v>34.630000000000003</v>
       </c>
       <c r="C181">
         <v>3.55</v>
       </c>
       <c r="D181" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F181" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G181" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H181">
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5142,22 +5162,22 @@
         <v>3.68</v>
       </c>
       <c r="D182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G182" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H182">
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5168,22 +5188,22 @@
         <v>5.65</v>
       </c>
       <c r="D183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G183" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H183">
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5194,22 +5214,22 @@
         <v>3.5</v>
       </c>
       <c r="D184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G184" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H184">
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5220,48 +5240,48 @@
         <v>6.5</v>
       </c>
       <c r="D185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G185" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H185">
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>40.55</v>
+        <v>40.549999999999997</v>
       </c>
       <c r="C186">
         <v>3</v>
       </c>
       <c r="D186" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G186" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H186">
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5272,22 +5292,22 @@
         <v>5</v>
       </c>
       <c r="D187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E187" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G187" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H187">
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5298,22 +5318,22 @@
         <v>3.5</v>
       </c>
       <c r="D188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G188" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H188">
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5324,48 +5344,48 @@
         <v>2</v>
       </c>
       <c r="D189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G189" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H189">
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>18.15</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="C190">
         <v>3.5</v>
       </c>
       <c r="D190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F190" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G190" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H190">
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -5376,22 +5396,22 @@
         <v>4</v>
       </c>
       <c r="D191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G191" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H191">
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -5402,48 +5422,48 @@
         <v>1.5</v>
       </c>
       <c r="D192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G192" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H192">
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>19.81</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="C193">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="D193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F193" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G193" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H193">
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -5454,22 +5474,22 @@
         <v>2.56</v>
       </c>
       <c r="D194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F194" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G194" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H194">
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -5480,48 +5500,48 @@
         <v>2.02</v>
       </c>
       <c r="D195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F195" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G195" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H195">
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>16.58</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="C196">
         <v>4</v>
       </c>
       <c r="D196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F196" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G196" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H196">
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -5532,22 +5552,22 @@
         <v>1.44</v>
       </c>
       <c r="D197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E197" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F197" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G197" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H197">
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -5558,22 +5578,22 @@
         <v>2</v>
       </c>
       <c r="D198" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F198" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G198" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H198">
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -5584,22 +5604,22 @@
         <v>5</v>
       </c>
       <c r="D199" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F199" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G199" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H199">
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -5610,22 +5630,22 @@
         <v>2</v>
       </c>
       <c r="D200" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G200" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H200">
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -5636,22 +5656,22 @@
         <v>2</v>
       </c>
       <c r="D201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G201" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H201">
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -5662,22 +5682,22 @@
         <v>4</v>
       </c>
       <c r="D202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G202" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H202">
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -5685,25 +5705,25 @@
         <v>12.74</v>
       </c>
       <c r="C203">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="D203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F203" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G203" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H203">
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -5714,48 +5734,48 @@
         <v>2</v>
       </c>
       <c r="D204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F204" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G204" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="C205">
         <v>2.5</v>
       </c>
       <c r="D205" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F205" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G205" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H205">
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -5766,22 +5786,22 @@
         <v>4</v>
       </c>
       <c r="D206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F206" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G206" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H206">
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -5792,22 +5812,22 @@
         <v>3.23</v>
       </c>
       <c r="D207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F207" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G207" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H207">
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -5818,48 +5838,48 @@
         <v>3.41</v>
       </c>
       <c r="D208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F208" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G208" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H208">
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>38.73</v>
+        <v>38.729999999999997</v>
       </c>
       <c r="C209">
         <v>3</v>
       </c>
       <c r="D209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F209" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G209" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H209">
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -5867,25 +5887,25 @@
         <v>24.27</v>
       </c>
       <c r="C210">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="D210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F210" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G210" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H210">
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -5896,22 +5916,22 @@
         <v>2.23</v>
       </c>
       <c r="D211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F211" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G211" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H211">
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -5922,22 +5942,22 @@
         <v>2</v>
       </c>
       <c r="D212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F212" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G212" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H212">
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -5948,22 +5968,22 @@
         <v>5.16</v>
       </c>
       <c r="D213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F213" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G213" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H213">
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -5974,22 +5994,22 @@
         <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E214" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F214" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G214" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H214">
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -6000,22 +6020,22 @@
         <v>2.5</v>
       </c>
       <c r="D215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F215" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G215" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H215">
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -6026,22 +6046,22 @@
         <v>6.5</v>
       </c>
       <c r="D216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F216" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G216" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H216">
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -6049,25 +6069,25 @@
         <v>12.9</v>
       </c>
       <c r="C217">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F217" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G217" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H217">
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -6078,22 +6098,22 @@
         <v>3</v>
       </c>
       <c r="D218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F218" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G218" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H218">
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -6104,22 +6124,22 @@
         <v>1.5</v>
       </c>
       <c r="D219" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F219" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G219" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H219">
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -6130,22 +6150,22 @@
         <v>1.44</v>
       </c>
       <c r="D220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F220" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G220" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H220">
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -6156,22 +6176,22 @@
         <v>3.09</v>
       </c>
       <c r="D221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F221" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G221" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H221">
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -6179,25 +6199,25 @@
         <v>12.16</v>
       </c>
       <c r="C222">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D222" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F222" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G222" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H222">
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -6208,22 +6228,22 @@
         <v>3.48</v>
       </c>
       <c r="D223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F223" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G223" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H223">
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -6234,22 +6254,22 @@
         <v>1.92</v>
       </c>
       <c r="D224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F224" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G224" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H224">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -6260,22 +6280,22 @@
         <v>3</v>
       </c>
       <c r="D225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E225" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F225" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G225" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H225">
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -6286,22 +6306,22 @@
         <v>1.58</v>
       </c>
       <c r="D226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E226" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F226" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G226" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H226">
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -6312,22 +6332,22 @@
         <v>2.5</v>
       </c>
       <c r="D227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F227" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G227" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H227">
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -6338,22 +6358,22 @@
         <v>2</v>
       </c>
       <c r="D228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F228" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G228" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H228">
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -6364,22 +6384,22 @@
         <v>3</v>
       </c>
       <c r="D229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E229" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F229" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G229" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H229">
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -6390,22 +6410,22 @@
         <v>2.72</v>
       </c>
       <c r="D230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F230" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G230" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H230">
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -6416,22 +6436,22 @@
         <v>2.88</v>
       </c>
       <c r="D231" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E231" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F231" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G231" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H231">
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -6442,22 +6462,22 @@
         <v>2</v>
       </c>
       <c r="D232" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E232" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F232" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G232" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H232">
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -6468,22 +6488,22 @@
         <v>3</v>
       </c>
       <c r="D233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E233" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F233" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G233" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H233">
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -6494,22 +6514,22 @@
         <v>3.39</v>
       </c>
       <c r="D234" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E234" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F234" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G234" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H234">
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -6520,22 +6540,22 @@
         <v>1.47</v>
       </c>
       <c r="D235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E235" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F235" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G235" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H235">
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -6546,22 +6566,22 @@
         <v>3</v>
       </c>
       <c r="D236" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E236" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F236" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G236" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H236">
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -6572,22 +6592,22 @@
         <v>1.25</v>
       </c>
       <c r="D237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E237" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F237" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G237" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H237">
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -6598,22 +6618,22 @@
         <v>1</v>
       </c>
       <c r="D238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E238" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F238" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G238" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H238">
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -6624,22 +6644,22 @@
         <v>1.17</v>
       </c>
       <c r="D239" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E239" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F239" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G239" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H239">
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -6650,22 +6670,22 @@
         <v>4.67</v>
       </c>
       <c r="D240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E240" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F240" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G240" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H240">
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -6676,22 +6696,22 @@
         <v>5.92</v>
       </c>
       <c r="D241" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E241" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F241" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G241" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H241">
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -6702,22 +6722,22 @@
         <v>2</v>
       </c>
       <c r="D242" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E242" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F242" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G242" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H242">
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -6728,22 +6748,22 @@
         <v>2</v>
       </c>
       <c r="D243" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E243" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F243" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G243" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H243">
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -6754,22 +6774,22 @@
         <v>1.75</v>
       </c>
       <c r="D244" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E244" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F244" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G244" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H244">
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -6780,22 +6800,24 @@
         <v>3</v>
       </c>
       <c r="D245" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E245" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F245" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G245" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H245">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>